--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3540.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3540.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.831709285660406</v>
+        <v>0.878023624420166</v>
       </c>
       <c r="B1">
-        <v>2.163155552822757</v>
+        <v>0.8574672937393188</v>
       </c>
       <c r="C1">
-        <v>2.132824390725758</v>
+        <v>0.8891956806182861</v>
       </c>
       <c r="D1">
-        <v>2.525757664150274</v>
+        <v>1.107177734375</v>
       </c>
       <c r="E1">
-        <v>3.480877553888083</v>
+        <v>0.9926592111587524</v>
       </c>
     </row>
   </sheetData>
